--- a/Pomoc społeczna.xlsx
+++ b/Pomoc społeczna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\OneDrive\Pulpit\spacial econ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38893431-1900-4EF3-B7B7-D887B88D20EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF90E9-1973-419D-8B61-B3CFB5AED291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="805" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tab12" sheetId="21" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tab12'!$A$5:$B$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tab12'!$B$2:$C$21</definedName>
     <definedName name="_Tab1">#REF!</definedName>
     <definedName name="_Tab2">#REF!</definedName>
     <definedName name="_Tab3">#REF!</definedName>
@@ -35,47 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <r>
-      <t xml:space="preserve">Wyszczególnienie
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Specification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wyników badania
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">results of survey  </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE AND RANGE OF BENEFITING FROM THIS ASSISTANCE IN 2018</t>
-  </si>
-  <si>
-    <t>POLAND</t>
-  </si>
-  <si>
-    <t>POLSKA</t>
   </si>
   <si>
     <t>Spis tablic</t>
@@ -186,9 +148,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>POMORSKIE</t>
-  </si>
-  <si>
     <t>Powiat gdański</t>
   </si>
   <si>
@@ -213,9 +172,6 @@
     <t>Powiat słupski</t>
   </si>
   <si>
-    <t>Powiat m.Słupsk</t>
-  </si>
-  <si>
     <t>Powiat kwidzyński</t>
   </si>
   <si>
@@ -229,15 +185,6 @@
   </si>
   <si>
     <t>Powiat sztumski</t>
-  </si>
-  <si>
-    <t>Powiat m.Gdańsk</t>
-  </si>
-  <si>
-    <t>Powiat m.Gdynia</t>
-  </si>
-  <si>
-    <t>Powiat m.Sopot</t>
   </si>
   <si>
     <t>Powiat chojnicki</t>
@@ -309,20 +256,25 @@
     <t xml:space="preserve">SHARE OF POOR BENEFICIARIES OF SOCIAL ASSISTANCE AT DOMICILE IN TOTAL POPULATION IN VOIVODSHIPS, POWIATS AND GMINAS  ACCORDING TO RESULTS OF SURVEY 1.25.11 IN 2018 AND AFTER TAKING INTO ACCOUNT BENEFIT FOR BRINGING UP A CHILD </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Udział według:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Share according to:</t>
-    </r>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Social_services_users</t>
+  </si>
+  <si>
+    <t>Słupsk</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Gdynia</t>
+  </si>
+  <si>
+    <t>Sopot</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -332,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -394,29 +346,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -561,25 +491,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,43 +509,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -661,12 +541,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,101 +554,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
@@ -1115,21 +976,21 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
@@ -1138,449 +999,466 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="B5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="C12" s="19"/>
+      <c r="D12" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="C14" s="19"/>
+      <c r="D14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B17" s="18" t="s">
-        <v>10</v>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B17" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="2:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="D17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B19" s="18" t="s">
-        <v>11</v>
+      <c r="D18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="2:12" s="19" customFormat="1" ht="16.5" customHeight="1">
+      <c r="D19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" s="14" customFormat="1" ht="16.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B21" s="18" t="s">
-        <v>12</v>
+      <c r="D20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B21" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="2:12" s="19" customFormat="1" ht="17.45" customHeight="1">
+      <c r="D21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" s="14" customFormat="1" ht="17.45" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="18" t="s">
-        <v>13</v>
+      <c r="D22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="2:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="D23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B25" s="18" t="s">
-        <v>14</v>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B25" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="2:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="D25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B27" s="18" t="s">
-        <v>15</v>
+      <c r="D26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B27" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="2:12" s="19" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="D27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="2:12" s="14" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B29" s="18" t="s">
-        <v>16</v>
+      <c r="D28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B29" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="2:12" s="19" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" spans="2:12" s="17" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B31" s="18" t="s">
-        <v>17</v>
+      <c r="D30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="2:12" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B31" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="2:12" s="19" customFormat="1" ht="18.75" customHeight="1">
+      <c r="D31" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" s="14" customFormat="1" ht="18.75" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-    </row>
-    <row r="33" spans="2:12" s="17" customFormat="1" ht="30.2" customHeight="1">
-      <c r="B33" s="18" t="s">
-        <v>18</v>
+      <c r="D32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" s="12" customFormat="1" ht="30.2" customHeight="1">
+      <c r="B33" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="2:12" s="19" customFormat="1" ht="30.75" customHeight="1">
+      <c r="D33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" s="14" customFormat="1" ht="30.75" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="D34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="36" spans="2:12" ht="14.25" customHeight="1">
       <c r="D36" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D13:L13"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D22:G22"/>
@@ -1591,23 +1469,6 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D32:J32"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D9:L9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15:D16" location="'Tabl. 3'!A1" display="LASY GMINNE I TERENY ZIELENI OGÓLNODOSTĘPNEJ" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1658,229 +1519,263 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Arkusz13"/>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:C665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="39.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="39.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="10.15">
-      <c r="A3" s="38"/>
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="35.450000000000003" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="32">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="32">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="32">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="32">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A6" s="32">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="32">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="34">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="32">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="32">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="32">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="32">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="32">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="32">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A14" s="32">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A15" s="32">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="34">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A16" s="32">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A17" s="32">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="32">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A19" s="32">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="32">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="34">
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="13">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="13">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="13">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="13">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="13">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="13">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="13">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A21" s="32">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="34">
         <v>1.4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="13">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="13">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" ht="10.15"/>
-    <row r="29" spans="1:2" s="1" customFormat="1" ht="10.15"/>
-    <row r="30" spans="1:2" s="1" customFormat="1" ht="10.15"/>
-    <row r="31" spans="1:2" s="1" customFormat="1" ht="10.15"/>
-    <row r="32" spans="1:2" s="1" customFormat="1" ht="10.15"/>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="10.15"/>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="10.15"/>
     <row r="33" s="1" customFormat="1" ht="10.15"/>
     <row r="34" s="1" customFormat="1" ht="10.15"/>
     <row r="35" s="1" customFormat="1" ht="10.15"/>
@@ -2514,40 +2409,16 @@
     <row r="663" s="1" customFormat="1" ht="10.15"/>
     <row r="664" s="1" customFormat="1" ht="10.15"/>
     <row r="665" s="1" customFormat="1" ht="10.15"/>
-    <row r="666" s="1" customFormat="1" ht="10.15"/>
-    <row r="667" s="1" customFormat="1" ht="10.15"/>
-    <row r="668" s="1" customFormat="1" ht="10.15"/>
-    <row r="669" s="1" customFormat="1" ht="10.15"/>
-    <row r="670" s="1" customFormat="1" ht="10.15"/>
-    <row r="671" s="1" customFormat="1" ht="10.15"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C671">
+    <sortCondition ref="A1:A671"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
-    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
-    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
-    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
-    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Pisma" ma:contentTypeID="0x00FBEB7090D5ED8B4AADA9FC396769AC9B" ma:contentTypeVersion="" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="6bc347668491c2bd9b5b9ebe793d10d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14bc6af8e0d4c36dc6f6478fae101c15" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3036,18 +2907,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ContentTypeId xmlns="http://schemas.microsoft.com/sharepoint/v3">0x00FBEB7090D5ED8B4AADA9FC396769AC9B</ContentTypeId>
+    <TemplateUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Odbiorcy2 xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B" xsi:nil="true"/>
+    <Osoba xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">STAT\PIWOWARCZYKM</Osoba>
+    <_SourceUrl xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <NazwaPliku xmlns="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B">Zał. 2. Tablice.xlsx.xlsx</NazwaPliku>
+    <xd_ProgID xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Order xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_SharedFileIndex xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <MetaInfo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCA5D831-E00F-4B67-9BED-FDD874FA9542}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3064,4 +2941,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF002163-2C63-4F18-AAC0-A28A4EAD563A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="9070EBFB-EDD5-4A8B-ADA9-FC396769AC9B"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>